--- a/biology/Botanique/Cuscute_proche/Cuscute_proche.xlsx
+++ b/biology/Botanique/Cuscute_proche/Cuscute_proche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuscuta approximata, la cuscute proche, est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire d'Eurasie et d'Afrique.
 C'est une plante herbacée annuelle qui parasite diverses espèces de plantes, notamment la luzerne.
@@ -514,15 +526,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (19 août 2019)[1] :
-Cuscuta approximata var. urceolata (Kunze) Yuncker[2]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (19 août 2019) :
+Cuscuta approximata var. urceolata (Kunze) Yuncker
 Cuscuta approximata var. urceolata Yunck.
 Cuscuta cupulata Engelm.
-Cuscuta epithymum subsp. approximata (Bab.) Rouy[2]
-Cuscuta planiflora var. approximata (Bab.) Engelm.
-Liste des variétés
-Selon The Plant List            (19 août 2019)[1] :
+Cuscuta epithymum subsp. approximata (Bab.) Rouy
+Cuscuta planiflora var. approximata (Bab.) Engelm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cuscute_proche</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuscute_proche</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (19 août 2019) :
 Cuscuta approximata var. episonchum (Webb &amp; Berthel.) Yunck.
 Cuscuta approximata var. schiraziana (Boiss.) Yunck.</t>
         </is>
